--- a/ig/ch-core/StructureDefinition-ch-core-practitioner.xlsx
+++ b/ig/ch-core/StructureDefinition-ch-core-practitioner.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="379">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>4.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2018-12-05</t>
+    <t>2023-06-27T23:16:55+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -93,7 +93,7 @@
     <t>Copyright</t>
   </si>
   <si>
-    <t>CC-BY-SA-4.0</t>
+    <t>CC0-1.0</t>
   </si>
   <si>
     <t>FHIR Version</t>
@@ -132,135 +132,6 @@
     <t>constraint</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: CDA-CH 2020 V2.1</t>
-  </si>
-  <si>
-    <t>Mapping: eCH-Standards</t>
-  </si>
-  <si>
-    <t>Mapping: EPR ValueSets</t>
-  </si>
-  <si>
-    <t>Mapping: HL7 v2 Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: ServD</t>
-  </si>
-  <si>
-    <t>Mapping: FiveWs Pattern Mapping</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -270,10 +141,11 @@
     <t>*</t>
   </si>
   <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
     <t>The CH Core Practitioner is based upon the core FHIR Practitioner Resource and designed to meet the applicable practitioner demographic data elements in Switzerland. See also https://www.bfs.admin.ch/bfs/de/home/register/personenregister/registerharmonisierung/nomenklaturen.html for further information</t>
-  </si>
-  <si>
-    <t>hl7:author (1..* R)</t>
   </si>
   <si>
     <t>PRD (as one example)</t>
@@ -495,9 +367,6 @@
     <t>open</t>
   </si>
   <si>
-    <t>hl7:author (1..* R) / hl7:assignedAuthor (1..1 R) / hl7:id (1..* R)</t>
-  </si>
-  <si>
     <t>PRD-7 (or XCN.1)</t>
   </si>
   <si>
@@ -523,7 +392,7 @@
     <t>GLN (Global Location Number)</t>
   </si>
   <si>
-    <t>An identifier - identifies some entity uniquely and unambiguously. Typically this is used for business identifiers.</t>
+    <t>See [GLN](http://fhir.ch/ig/ch-core/NamingSystem/gln)</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -545,7 +414,10 @@
     <t>ZSR</t>
   </si>
   <si>
-    <t>The ZSR number is issued to self-employed, natural or legal persons (organisations) who can and want to work at the expense of health insurance.</t>
+    <t>ZSR (Zahlstellenregister), RCC (Registre des codes-créanciers), RCC (Registro dei codici creditori)</t>
+  </si>
+  <si>
+    <t>The [ZSR/RCC](http://fhir.ch/ig/ch-core/NamingSystem/zsr) number is issued to self-employed, natural or legal persons (organisations) who can and want to work at the expense of health insurance.</t>
   </si>
   <si>
     <t>Practitioner.identifier:ZSR.id</t>
@@ -665,7 +537,7 @@
     <t>Practitioner.identifier.system</t>
   </si>
   <si>
-    <t>OID of the ZSR</t>
+    <t>OID of the ZSR/RCC</t>
   </si>
   <si>
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
@@ -701,7 +573,7 @@
     <t>Practitioner.identifier.value</t>
   </si>
   <si>
-    <t>ZSR of the practitioner</t>
+    <t>ZSR/RCC of the practitioner</t>
   </si>
   <si>
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
@@ -832,22 +704,19 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ch-core-hm-1:if officalName with eCH-011 Extension is specified, it can only be put on a name where use attribute is official {family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name' and valueCode='officialName').empty() or (family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name' and valueCode='officialName').exists() and use='official')}ch-core-hm-2:if orginalName with eCH-011 Extension is specified, it can only be put on a name where use attribute is maiden {family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name' and valueCode='originalName').empty() or ((family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name' and valueCode='originalName').exists() and use='maiden'))}ch-core-hm-3:ch-ext-ech-11-name can only be put on a family name {descendants().extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name').count()=family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name').count()}ch-core-hm-4:ch-ext-ech-11-firstname can only be put on a given name {descendants().extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-firstname').count()=given.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-firstname').count()}</t>
-  </si>
-  <si>
-    <t>hl7:author (1..* R) / hl7:assignedAuthor (1..1 R) / hl7:assignedPerson (1..1 R) / hl7:name (1..1 R)</t>
+ch-core-hm-1:if officalName with eCH-011 Extension is specified, it can only be put on a name where use attribute is official {family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name' and value='officialName').empty() or (family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name' and value='officialName').exists() and use='official')}ch-core-hm-2:if orginalName with eCH-011 Extension is specified, it can only be put on a name where use attribute is maiden {family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name' and value='originalName').empty() or ((family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name' and value='originalName').exists() and use='maiden'))}ch-core-hm-3:ch-ext-ech-11-name can only be put on a family name {descendants().extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name').count()=family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name').count()}ch-core-hm-4:ch-ext-ech-11-firstname can only be put on a given name {descendants().extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-firstname').count()=given.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-firstname').count()}</t>
+  </si>
+  <si>
+    <t>XPN</t>
+  </si>
+  <si>
+    <t>EN (actually, PN)</t>
+  </si>
+  <si>
+    <t>ProviderName</t>
   </si>
   <si>
     <t>eCH-0011: 3.3.2 nameData</t>
-  </si>
-  <si>
-    <t>XPN</t>
-  </si>
-  <si>
-    <t>EN (actually, PN)</t>
-  </si>
-  <si>
-    <t>ProviderName</t>
   </si>
   <si>
     <t>Practitioner.telecom</t>
@@ -869,9 +738,6 @@
     <t>Need to know how to reach a practitioner independent to any roles the practitioner may have.</t>
   </si>
   <si>
-    <t>hl7:author (1..* R) / hl7:assignedAuthor (1..1 R) / hl7:telecom (1..* R)</t>
-  </si>
-  <si>
     <t>PRT-15, STF-10, ROL-12</t>
   </si>
   <si>
@@ -879,6 +745,201 @@
   </si>
   <si>
     <t>./ContactPoints</t>
+  </si>
+  <si>
+    <t>eCH-0046: Contact</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.id</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.system</t>
+  </si>
+  <si>
+    <t>phone | fax | email | pager | url | sms | other</t>
+  </si>
+  <si>
+    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
+  </si>
+  <si>
+    <t>Telecommunications form for contact point.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
+  </si>
+  <si>
+    <t>ContactPoint.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cpt-2
+</t>
+  </si>
+  <si>
+    <t>XTN.3</t>
+  </si>
+  <si>
+    <t>./scheme</t>
+  </si>
+  <si>
+    <t>./ContactPointType</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.value</t>
+  </si>
+  <si>
+    <t>The actual contact point details</t>
+  </si>
+  <si>
+    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
+  </si>
+  <si>
+    <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
+  </si>
+  <si>
+    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
+  </si>
+  <si>
+    <t>ContactPoint.value</t>
+  </si>
+  <si>
+    <t>XTN.1 (or XTN.12)</t>
+  </si>
+  <si>
+    <t>./url</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.use</t>
+  </si>
+  <si>
+    <t>home | work | temp | old | mobile - purpose of this contact point</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for the contact point.</t>
+  </si>
+  <si>
+    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
+  </si>
+  <si>
+    <t>Use of contact point.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
+  </si>
+  <si>
+    <t>ContactPoint.use</t>
+  </si>
+  <si>
+    <t>XTN.2 - but often indicated by field</t>
+  </si>
+  <si>
+    <t>unique(./use)</t>
+  </si>
+  <si>
+    <t>./ContactPointPurpose</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
+</t>
+  </si>
+  <si>
+    <t>Specify preferred order of use (1 = highest)</t>
+  </si>
+  <si>
+    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
+  </si>
+  <si>
+    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.</t>
+  </si>
+  <si>
+    <t>ContactPoint.rank</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.period</t>
+  </si>
+  <si>
+    <t>Time period when the contact point was/is in use</t>
+  </si>
+  <si>
+    <t>Time period when the contact point was/is in use.</t>
+  </si>
+  <si>
+    <t>ContactPoint.period</t>
+  </si>
+  <si>
+    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:email</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContactPoint {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-contactpoint-ech-46-email}
+</t>
+  </si>
+  <si>
+    <t>CH Core ContactPoint eCH-0046 Email</t>
+  </si>
+  <si>
+    <t>Details for all kinds of technology mediated contact points for a person or organization, including telephone, email, etc.</t>
+  </si>
+  <si>
+    <t>cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}
+ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
+  </si>
+  <si>
+    <t>XTN</t>
+  </si>
+  <si>
+    <t>TEL</t>
+  </si>
+  <si>
+    <t>ContactPoint</t>
+  </si>
+  <si>
+    <t>eCH-0046: 4.3 email</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:phone</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContactPoint {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-contactpoint-ech-46-phone}
+</t>
+  </si>
+  <si>
+    <t>CH Core ContactPoint eCH-0046 Phone</t>
+  </si>
+  <si>
+    <t>eCH-0046: 4.4 phone</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:internet</t>
+  </si>
+  <si>
+    <t>internet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContactPoint {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-contactpoint-ech-46-internet}
+</t>
+  </si>
+  <si>
+    <t>CH Core ContactPoint eCH-0046 Internet</t>
+  </si>
+  <si>
+    <t>eCH-0046: 4.5 internet</t>
   </si>
   <si>
     <t>Practitioner.address</t>
@@ -900,21 +961,18 @@
     <t>The home/mailing address of the practitioner is often required for employee administration purposes, and also for some rostering services where the start point (practitioners home) can be used in calculations.</t>
   </si>
   <si>
-    <t>hl7:author (1..* R) / hl7:assignedAuthor (1..1 R) / hl7:addr (0..*)</t>
+    <t>XAD</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>Address</t>
   </si>
   <si>
     <t>eCH-0010: 5.5 addressInformation</t>
   </si>
   <si>
-    <t>XAD</t>
-  </si>
-  <si>
-    <t>AD</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
     <t>Practitioner.gender</t>
   </si>
   <si>
@@ -933,16 +991,16 @@
     <t>http://hl7.org/fhir/ValueSet/administrative-gender|4.0.1</t>
   </si>
   <si>
+    <t>STF-5</t>
+  </si>
+  <si>
+    <t>./administrativeGender</t>
+  </si>
+  <si>
+    <t>./GenderCode</t>
+  </si>
+  <si>
     <t>eCH-0011: 3.3.3 sex. sexType, BFS-33, see ConceptMap http://fhir.ch/ig/ch-core/ConceptMap/sex-ech11-to-fhir</t>
-  </si>
-  <si>
-    <t>STF-5</t>
-  </si>
-  <si>
-    <t>./administrativeGender</t>
-  </si>
-  <si>
-    <t>./GenderCode</t>
   </si>
   <si>
     <t>Practitioner.birthDate</t>
@@ -961,16 +1019,16 @@
     <t>Needed for identification.</t>
   </si>
   <si>
+    <t>STF-6</t>
+  </si>
+  <si>
+    <t>./birthTime</t>
+  </si>
+  <si>
+    <t>(not represented in ServD)</t>
+  </si>
+  <si>
     <t>eCH-0011: 3.3.3 birthData, BFS-31</t>
-  </si>
-  <si>
-    <t>STF-6</t>
-  </si>
-  <si>
-    <t>./birthTime</t>
-  </si>
-  <si>
-    <t>(not represented in ServD)</t>
   </si>
   <si>
     <t>Practitioner.photo</t>
@@ -1121,16 +1179,16 @@
     <t>Knowing which language a practitioner speaks can help in facilitating communication with patients.</t>
   </si>
   <si>
+    <t>PID-15, NK1-20, LAN-2</t>
+  </si>
+  <si>
+    <t>./languageCommunication</t>
+  </si>
+  <si>
+    <t>./Languages.LanguageSpokenCode</t>
+  </si>
+  <si>
     <t>eCH-0011: 3.3.9 languageOfCorrespondance: de, fr, it, rm = Rhaeto-Romance, en, other languages ISO 639-1</t>
-  </si>
-  <si>
-    <t>PID-15, NK1-20, LAN-2</t>
-  </si>
-  <si>
-    <t>./languageCommunication</t>
-  </si>
-  <si>
-    <t>./Languages.LanguageSpokenCode</t>
   </si>
 </sst>
 </file>
@@ -1252,10 +1310,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1264,7 +1322,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1354,81 +1412,89 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B21" t="s" s="2">
         <v>38</v>
       </c>
     </row>
@@ -1439,7 +1505,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AQ37"/>
+  <dimension ref="A1:AO46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1448,17 +1514,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.1015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.1015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.57421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.57421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="6" max="6" width="2.203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.203125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="2.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="74.12890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="90.17578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1467,4596 +1532,5425 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="52.28125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="10.203125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="52.46484375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="2.203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.203125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="86.42578125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="101.08984375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="23.27734375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="60.5" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="137.703125" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="50.04296875" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="60.68359375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="139.15234375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="49.75" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="15.64453125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="104.37890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>39</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>40</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="L1" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="AL1" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="AM1" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="I1" t="s" s="1">
-        <v>47</v>
-      </c>
-      <c r="J1" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="K1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>75</v>
-      </c>
-      <c r="AL1" t="s" s="1">
-        <v>76</v>
-      </c>
-      <c r="AM1" t="s" s="1">
-        <v>77</v>
-      </c>
-      <c r="AN1" t="s" s="1">
-        <v>78</v>
-      </c>
-      <c r="AO1" t="s" s="1">
-        <v>79</v>
-      </c>
-      <c r="AP1" t="s" s="1">
-        <v>80</v>
-      </c>
-      <c r="AQ1" t="s" s="1">
-        <v>81</v>
+      <c r="AN1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s" s="2">
+        <v>39</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="N2" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="N2" t="s" s="2">
+        <v>53</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AP2" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AQ2" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP3" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AQ3" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N4" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>65</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP4" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AQ4" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP5" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AQ5" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="S6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X6" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>118</v>
-      </c>
       <c r="AG6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL6" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="AH6" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL6" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AM6" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AQ6" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="AH7" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL7" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AI7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AM7" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AP7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AQ7" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AP8" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AQ8" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O9" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="O9" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="P9" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AP9" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AQ9" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>136</v>
+        <v>39</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="AC10" s="2"/>
       <c r="AD10" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>142</v>
+        <v>60</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AP10" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AQ10" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="D11" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c r="P11" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AC11" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="AD11" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>154</v>
+        <v>39</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AP11" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AQ11" t="s" s="2">
-        <v>159</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c r="P12" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>165</v>
+        <v>39</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>166</v>
+        <v>115</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AP12" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AQ12" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AP13" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AQ13" t="s" s="2">
-        <v>159</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>174</v>
+        <v>94</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>177</v>
+        <v>141</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AP14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AQ14" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>179</v>
+        <v>142</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>136</v>
+        <v>39</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O15" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="P15" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>182</v>
+        <v>39</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>183</v>
+        <v>39</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>154</v>
+        <v>39</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>142</v>
+        <v>60</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>82</v>
+        <v>152</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AP15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AQ15" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>82</v>
+        <v>152</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>134</v>
+        <v>39</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AP16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AQ16" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>198</v>
+        <v>62</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>82</v>
+        <v>171</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>203</v>
+        <v>39</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>204</v>
+        <v>39</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>205</v>
+        <v>39</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>82</v>
+        <v>176</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>207</v>
+        <v>39</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AP17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AQ17" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>214</v>
+        <v>39</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>82</v>
+        <v>184</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>82</v>
+        <v>185</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>82</v>
+        <v>186</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>217</v>
+        <v>39</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AP18" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AQ18" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>225</v>
+        <v>39</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>82</v>
+        <v>193</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>82</v>
+        <v>194</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>82</v>
+        <v>195</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>227</v>
+        <v>39</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AP19" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="AQ19" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>82</v>
+        <v>204</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>236</v>
+        <v>39</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="AP20" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="AQ20" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>239</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="P21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q21" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="Q21" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="R21" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>82</v>
+        <v>213</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="AP21" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AQ21" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="P22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q22" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>103</v>
+        <v>221</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>82</v>
+        <v>222</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>82</v>
+        <v>223</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>82</v>
+        <v>224</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="AP22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AQ22" t="s" s="2">
-        <v>257</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="AC23" s="2"/>
       <c r="AD23" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>165</v>
+        <v>39</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>264</v>
+        <v>60</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>82</v>
+        <v>234</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>267</v>
+        <v>39</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AP23" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AQ23" t="s" s="2">
-        <v>82</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>271</v>
+        <v>131</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>272</v>
+        <v>132</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>270</v>
+        <v>134</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>276</v>
+        <v>39</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>277</v>
+        <v>39</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AP24" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="AQ24" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>280</v>
+        <v>237</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>280</v>
+        <v>237</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>281</v>
+        <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>282</v>
+        <v>95</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>283</v>
+        <v>138</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>280</v>
+        <v>141</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>165</v>
+        <v>39</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>286</v>
+        <v>39</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>287</v>
+        <v>135</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>288</v>
+        <v>39</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AP25" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AQ25" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>291</v>
+        <v>238</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>291</v>
+        <v>238</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>292</v>
+        <v>239</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>293</v>
+        <v>240</v>
       </c>
       <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>294</v>
-      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>191</v>
+        <v>148</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>295</v>
+        <v>241</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>296</v>
+        <v>242</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>291</v>
+        <v>243</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>82</v>
+        <v>244</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>82</v>
+        <v>245</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>297</v>
+        <v>246</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>82</v>
+        <v>247</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>298</v>
+        <v>39</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="AP26" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AQ26" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>301</v>
+        <v>248</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>301</v>
+        <v>248</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>302</v>
+        <v>131</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>303</v>
+        <v>249</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="O27" t="s" s="2">
-        <v>305</v>
+        <v>252</v>
       </c>
       <c r="P27" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>301</v>
+        <v>253</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>82</v>
+        <v>254</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>306</v>
+        <v>255</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>82</v>
+        <v>186</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>307</v>
+        <v>39</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AP27" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AQ27" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>310</v>
+        <v>256</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>310</v>
+        <v>256</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>311</v>
+        <v>68</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>312</v>
+        <v>257</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="O28" t="s" s="2">
-        <v>314</v>
+        <v>260</v>
       </c>
       <c r="P28" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>82</v>
+        <v>261</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>82</v>
+        <v>262</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>310</v>
+        <v>263</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>82</v>
+        <v>264</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>82</v>
+        <v>265</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>82</v>
+        <v>266</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AP28" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AQ28" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>317</v>
+        <v>267</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>317</v>
+        <v>267</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>318</v>
+        <v>268</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>319</v>
+        <v>269</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>317</v>
+        <v>272</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>321</v>
+        <v>39</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AP29" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AQ29" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>324</v>
+        <v>273</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>324</v>
+        <v>273</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>175</v>
+        <v>274</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>176</v>
+        <v>275</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>177</v>
+        <v>276</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="AH30" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AI30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AL30" t="s" s="2">
-        <v>82</v>
+        <v>277</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>82</v>
+        <v>195</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AP30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AQ30" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>325</v>
+        <v>278</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="D31" t="s" s="2">
-        <v>136</v>
+        <v>39</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>137</v>
+        <v>280</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>138</v>
+        <v>281</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>181</v>
+        <v>282</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="P31" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>184</v>
+        <v>226</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>142</v>
+        <v>283</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>82</v>
+        <v>284</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>82</v>
+        <v>285</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>82</v>
+        <v>286</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AP31" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AQ31" t="s" s="2">
-        <v>82</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>326</v>
+        <v>288</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="D32" t="s" s="2">
-        <v>327</v>
+        <v>39</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>137</v>
+        <v>290</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>328</v>
+        <v>291</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>329</v>
+        <v>282</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>146</v>
+        <v>231</v>
       </c>
       <c r="P32" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>330</v>
+        <v>226</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>142</v>
+        <v>283</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>82</v>
+        <v>284</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>82</v>
+        <v>285</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>82</v>
+        <v>286</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AP32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AQ32" t="s" s="2">
-        <v>82</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>331</v>
+        <v>293</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="C33" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="D33" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>149</v>
+        <v>295</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>332</v>
+        <v>296</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="O33" t="s" s="2">
-        <v>334</v>
+        <v>231</v>
       </c>
       <c r="P33" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>331</v>
+        <v>226</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>103</v>
+        <v>283</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>82</v>
+        <v>284</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>82</v>
+        <v>285</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>82</v>
+        <v>286</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="AP33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AQ33" t="s" s="2">
-        <v>82</v>
+        <v>297</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>198</v>
+        <v>299</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>337</v>
+        <v>300</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="P34" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>339</v>
+        <v>39</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>340</v>
+        <v>39</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>341</v>
+        <v>39</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>82</v>
+        <v>304</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>82</v>
+        <v>305</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>82</v>
+        <v>306</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AP34" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AQ34" t="s" s="2">
-        <v>82</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>343</v>
+        <v>308</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>343</v>
+        <v>308</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>232</v>
+        <v>68</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>344</v>
+        <v>309</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>345</v>
+        <v>310</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="P35" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>82</v>
+        <v>312</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>82</v>
+        <v>313</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>343</v>
+        <v>308</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>82</v>
+        <v>314</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>82</v>
+        <v>315</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>82</v>
+        <v>316</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="AP35" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="AQ35" t="s" s="2">
-        <v>82</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>349</v>
+        <v>318</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>349</v>
+        <v>318</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>241</v>
+        <v>319</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>351</v>
+        <v>321</v>
       </c>
       <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="P36" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>349</v>
+        <v>318</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>82</v>
+        <v>323</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>82</v>
+        <v>324</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>82</v>
+        <v>325</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AP36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AQ36" t="s" s="2">
-        <v>82</v>
+        <v>326</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>198</v>
+        <v>328</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>357</v>
+        <v>331</v>
       </c>
       <c r="P37" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>115</v>
+        <v>39</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>117</v>
+        <v>39</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AF37" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AO37" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Q38" s="2"/>
+      <c r="R38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AO38" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Q39" s="2"/>
+      <c r="R39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AO39" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="O40" s="2"/>
+      <c r="P40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AO40" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="P41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Q41" s="2"/>
+      <c r="R41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AO41" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="P42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AO42" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="AG37" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL37" t="s" s="2">
+      <c r="B43" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="Z43" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AM37" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN37" t="s" s="2">
+      <c r="AA43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AO37" t="s" s="2">
+      <c r="AN43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AO43" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AP37" t="s" s="2">
+      <c r="B44" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="AQ37" t="s" s="2">
-        <v>82</v>
+      <c r="M44" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="P44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="R44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AO44" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AO45" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="P46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AO46" t="s" s="2">
+        <v>378</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-core/StructureDefinition-ch-core-practitioner.xlsx
+++ b/ig/ch-core/StructureDefinition-ch-core-practitioner.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="360">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-19T13:50:36+01:00</t>
+    <t>2023-12-28T08:46:25+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>FHIR Version</t>
-  </si>
-  <si>
-    <t>4.0.1</t>
   </si>
   <si>
     <t>Kind</t>
@@ -1407,47 +1404,47 @@
         <v>27</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>29</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>31</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>33</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>35</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>37</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1466,17 +1463,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.70703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.70703125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.57421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.57421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="89.51953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="90.17578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1485,4612 +1482,4612 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.06640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.921875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="55.9453125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="52.46484375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="62.87890625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="143.74609375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="50.953125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="97.55859375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="60.68359375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="139.15234375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="49.75" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="99.16015625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="C1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="D1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="E1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="F1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="G1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="H1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="I1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="J1" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="K1" t="s" s="1">
         <v>48</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c r="L1" t="s" s="1">
         <v>49</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="M1" t="s" s="1">
         <v>50</v>
       </c>
-      <c r="M1" t="s" s="1">
+      <c r="N1" t="s" s="1">
         <v>51</v>
       </c>
-      <c r="N1" t="s" s="1">
+      <c r="O1" t="s" s="1">
         <v>52</v>
       </c>
-      <c r="O1" t="s" s="1">
+      <c r="P1" t="s" s="1">
         <v>53</v>
       </c>
-      <c r="P1" t="s" s="1">
+      <c r="Q1" t="s" s="1">
         <v>54</v>
       </c>
-      <c r="Q1" t="s" s="1">
+      <c r="R1" t="s" s="1">
         <v>55</v>
       </c>
-      <c r="R1" t="s" s="1">
+      <c r="S1" t="s" s="1">
         <v>56</v>
       </c>
-      <c r="S1" t="s" s="1">
+      <c r="T1" t="s" s="1">
         <v>57</v>
       </c>
-      <c r="T1" t="s" s="1">
+      <c r="U1" t="s" s="1">
         <v>58</v>
       </c>
-      <c r="U1" t="s" s="1">
+      <c r="V1" t="s" s="1">
         <v>59</v>
       </c>
-      <c r="V1" t="s" s="1">
+      <c r="W1" t="s" s="1">
         <v>60</v>
       </c>
-      <c r="W1" t="s" s="1">
+      <c r="X1" t="s" s="1">
         <v>61</v>
       </c>
-      <c r="X1" t="s" s="1">
+      <c r="Y1" t="s" s="1">
         <v>62</v>
       </c>
-      <c r="Y1" t="s" s="1">
+      <c r="Z1" t="s" s="1">
         <v>63</v>
       </c>
-      <c r="Z1" t="s" s="1">
+      <c r="AA1" t="s" s="1">
         <v>64</v>
       </c>
-      <c r="AA1" t="s" s="1">
+      <c r="AB1" t="s" s="1">
         <v>65</v>
       </c>
-      <c r="AB1" t="s" s="1">
+      <c r="AC1" t="s" s="1">
         <v>66</v>
       </c>
-      <c r="AC1" t="s" s="1">
+      <c r="AD1" t="s" s="1">
         <v>67</v>
       </c>
-      <c r="AD1" t="s" s="1">
+      <c r="AE1" t="s" s="1">
         <v>68</v>
       </c>
-      <c r="AE1" t="s" s="1">
+      <c r="AF1" t="s" s="1">
         <v>69</v>
       </c>
-      <c r="AF1" t="s" s="1">
+      <c r="AG1" t="s" s="1">
         <v>70</v>
       </c>
-      <c r="AG1" t="s" s="1">
+      <c r="AH1" t="s" s="1">
         <v>71</v>
       </c>
-      <c r="AH1" t="s" s="1">
+      <c r="AI1" t="s" s="1">
         <v>72</v>
       </c>
-      <c r="AI1" t="s" s="1">
+      <c r="AJ1" t="s" s="1">
         <v>73</v>
       </c>
-      <c r="AJ1" t="s" s="1">
+      <c r="AK1" t="s" s="1">
         <v>74</v>
       </c>
-      <c r="AK1" t="s" s="1">
+      <c r="AL1" t="s" s="1">
         <v>75</v>
       </c>
-      <c r="AL1" t="s" s="1">
+      <c r="AM1" t="s" s="1">
         <v>76</v>
       </c>
-      <c r="AM1" t="s" s="1">
+      <c r="AN1" t="s" s="1">
         <v>77</v>
       </c>
-      <c r="AN1" t="s" s="1">
+      <c r="AO1" t="s" s="1">
         <v>78</v>
-      </c>
-      <c r="AO1" t="s" s="1">
-        <v>79</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G2" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G2" t="s" s="2">
+      <c r="H2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="H2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K2" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>9</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AG2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH2" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AH2" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AI2" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK2" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="AM2" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="AN2" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="M3" t="s" s="2">
+      <c r="N3" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J4" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="K4" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AF4" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AG4" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>102</v>
-      </c>
       <c r="AK4" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I5" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="H5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J5" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="Y6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="AA6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>117</v>
-      </c>
       <c r="AG6" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL7" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AM7" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G8" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G8" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="H8" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AF8" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL8" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="AG8" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL8" t="s" s="2">
-        <v>133</v>
-      </c>
       <c r="AM8" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G9" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G9" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="H9" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AF9" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="AG9" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>141</v>
-      </c>
       <c r="AK9" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G10" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G10" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="H10" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="N10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>145</v>
-      </c>
       <c r="P10" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AG10" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH10" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AH10" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AI10" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G11" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G11" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="H11" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P11" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="AF11" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AL11" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AN11" t="s" s="2">
-        <v>157</v>
-      </c>
       <c r="AO11" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="C12" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="B12" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>159</v>
-      </c>
       <c r="D12" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G12" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G12" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="H12" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P12" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AG12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH12" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AH12" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AI12" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AJ12" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK12" t="s" s="2">
+      <c r="AL12" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="AM12" t="s" s="2">
-        <v>166</v>
-      </c>
       <c r="AN12" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="C13" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>168</v>
-      </c>
       <c r="D13" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G13" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="H13" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P13" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AG13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH13" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AH13" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AI13" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AJ13" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="AM13" t="s" s="2">
-        <v>166</v>
-      </c>
       <c r="AN13" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J14" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="H14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J14" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="K14" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="N14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="O14" t="s" s="2">
+      <c r="P14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q14" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="P14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q14" t="s" s="2">
+      <c r="R14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="R14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN14" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AM14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>180</v>
-      </c>
       <c r="AO14" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G15" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="H15" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="N15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="O15" t="s" s="2">
-        <v>186</v>
-      </c>
       <c r="P15" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AG15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH15" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AH15" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AI15" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AK15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO15" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>191</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G16" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="H16" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="N16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="O16" t="s" s="2">
-        <v>197</v>
-      </c>
       <c r="P16" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AC16" s="2"/>
       <c r="AD16" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH16" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AH16" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AI16" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO16" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>201</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AG17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>207</v>
-      </c>
       <c r="AM17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G18" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="H18" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L18" t="s" s="2">
-        <v>137</v>
-      </c>
       <c r="M18" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB18" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AC18" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AC18" t="s" s="2">
+      <c r="AD18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AD18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>212</v>
-      </c>
       <c r="AG18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH18" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AH18" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AI18" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J19" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="K19" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X19" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="Y19" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="Y19" t="s" s="2">
+      <c r="Z19" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="Z19" t="s" s="2">
+      <c r="AA19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AA19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF19" t="s" s="2">
+      <c r="AG19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI19" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AG19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI19" t="s" s="2">
+      <c r="AJ19" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AJ19" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AM19" t="s" s="2">
-        <v>223</v>
-      </c>
       <c r="AN19" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J20" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="K20" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="N20" t="s" s="2">
+      <c r="O20" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="O20" t="s" s="2">
-        <v>228</v>
-      </c>
       <c r="P20" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AG20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AM20" t="s" s="2">
-        <v>232</v>
-      </c>
       <c r="AN20" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G21" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I21" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="H21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J21" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="N21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="O21" t="s" s="2">
-        <v>237</v>
-      </c>
       <c r="P21" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y21" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="Z21" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="Z21" t="s" s="2">
+      <c r="AA21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF21" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AA21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF21" t="s" s="2">
+      <c r="AG21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="AG21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="AM21" t="s" s="2">
-        <v>243</v>
-      </c>
       <c r="AN21" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J22" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="H22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="K22" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J23" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="H23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J23" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="K23" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AG23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AM23" t="s" s="2">
-        <v>256</v>
-      </c>
       <c r="AN23" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="C24" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="B24" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>258</v>
-      </c>
       <c r="D24" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G24" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="H24" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="M24" t="s" s="2">
-        <v>261</v>
-      </c>
       <c r="N24" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="O24" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="O24" t="s" s="2">
-        <v>197</v>
-      </c>
       <c r="P24" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH24" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AH24" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AI24" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO24" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>266</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="C25" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="B25" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>268</v>
-      </c>
       <c r="D25" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G25" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="H25" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="L25" t="s" s="2">
-        <v>270</v>
-      </c>
       <c r="M25" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N25" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="O25" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="O25" t="s" s="2">
-        <v>197</v>
-      </c>
       <c r="P25" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH25" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AH25" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AI25" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="AM25" t="s" s="2">
-        <v>265</v>
-      </c>
       <c r="AN25" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="C26" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="B26" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>273</v>
-      </c>
       <c r="D26" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G26" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="H26" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="L26" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="M26" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N26" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="O26" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="O26" t="s" s="2">
-        <v>197</v>
-      </c>
       <c r="P26" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH26" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AH26" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AI26" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AL26" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="AM26" t="s" s="2">
-        <v>265</v>
-      </c>
       <c r="AN26" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G27" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="H27" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="O27" t="s" s="2">
-        <v>282</v>
-      </c>
       <c r="P27" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AG27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH27" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AH27" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AI27" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AK27" t="s" s="2">
+      <c r="AL27" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO27" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>287</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J28" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="H28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J28" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="K28" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="P28" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y28" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="Z28" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="Z28" t="s" s="2">
+      <c r="AA28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="AA28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK28" t="s" s="2">
+      <c r="AL28" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO28" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>297</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J29" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="H29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J29" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="K29" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P29" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO29" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>306</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G30" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="H30" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P30" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AG30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH30" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AH30" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AI30" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="AM30" t="s" s="2">
-        <v>313</v>
-      </c>
       <c r="AN30" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G31" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G31" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="H31" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AG31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH31" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AH31" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AI31" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AM31" t="s" s="2">
-        <v>320</v>
-      </c>
       <c r="AN31" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AG32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>207</v>
-      </c>
       <c r="AM32" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G33" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="H33" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L33" t="s" s="2">
-        <v>137</v>
-      </c>
       <c r="M33" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AG33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH33" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AH33" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AI33" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G34" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="H34" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="M34" t="s" s="2">
-        <v>326</v>
-      </c>
       <c r="N34" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P34" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AG34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH34" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AH34" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AI34" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G35" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="H35" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P35" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AG35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH35" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AH35" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AI35" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="Y36" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="Y36" t="s" s="2">
+      <c r="Z36" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="Z36" t="s" s="2">
+      <c r="AA36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AA36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>340</v>
-      </c>
       <c r="AN36" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P37" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="AM37" t="s" s="2">
-        <v>346</v>
-      </c>
       <c r="AN37" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G39" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G39" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="H39" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="O39" t="s" s="2">
-        <v>356</v>
-      </c>
       <c r="P39" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X39" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="Y39" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="Y39" t="s" s="2">
+      <c r="Z39" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="Z39" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="AA39" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AG39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH39" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AH39" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AI39" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO39" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>360</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-core/StructureDefinition-ch-core-practitioner.xlsx
+++ b/ig/ch-core/StructureDefinition-ch-core-practitioner.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="365">
   <si>
     <t>Property</t>
   </si>
@@ -30,75 +30,81 @@
     <t>Version</t>
   </si>
   <si>
+    <t>5.0.0-ballot</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>CHCorePractitioner</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>CH Core Practitioner</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>Experimental</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2024-05-16T16:13:45+00:00</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>HL7 Switzerland</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>HL7 Switzerland (https://www.hl7.ch/)</t>
+  </si>
+  <si>
+    <t>HL7 Switzerland (https://www.hl7.ch/(WORK))</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Base definition of the Practitioner resource for use in Swiss specific use cases.</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Core practitioner data which can be shared</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>CC0-1.0</t>
+  </si>
+  <si>
+    <t>FHIR Version</t>
+  </si>
+  <si>
     <t>4.0.1</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>CHCorePractitioner</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>CH Core Practitioner</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>Experimental</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>2023-12-28T08:46:25+01:00</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>HL7 Switzerland</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>No display for ContactDetail</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Core practitioner definition in the swiss context.</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Core practitioner data which can be shared</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>CC0-1.0</t>
-  </si>
-  <si>
-    <t>FHIR Version</t>
-  </si>
-  <si>
     <t>Kind</t>
   </si>
   <si>
@@ -237,6 +243,9 @@
     <t>Constraint(s)</t>
   </si>
   <si>
+    <t>Mapping: eCH-Standards</t>
+  </si>
+  <si>
     <t>Mapping: HL7 v2 Mapping</t>
   </si>
   <si>
@@ -247,9 +256,6 @@
   </si>
   <si>
     <t>Mapping: FiveWs Pattern Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: eCH-Standards</t>
   </si>
   <si>
     <t/>
@@ -484,150 +490,167 @@
     <t>Often, specific identities are assigned for the agent.</t>
   </si>
   <si>
+    <t xml:space="preserve">pattern:$this}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>PRD-7 (or XCN.1)</t>
+  </si>
+  <si>
+    <t>./id</t>
+  </si>
+  <si>
+    <t>./Identifiers</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier:GLN</t>
+  </si>
+  <si>
+    <t>GLN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-gln-identifier}
+</t>
+  </si>
+  <si>
+    <t>GLN (Global Location Number)</t>
+  </si>
+  <si>
+    <t>See [GLN](http://fhir.ch/ig/ch-term/NamingSystem/gln)</t>
+  </si>
+  <si>
+    <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="urn:oid:2.51.1.3"/&gt;
+&lt;/valueIdentifier&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
+  </si>
+  <si>
+    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier:ZSR</t>
+  </si>
+  <si>
+    <t>ZSR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-zsr-identifier}
+</t>
+  </si>
+  <si>
+    <t>ZSR (Zahlstellenregister), RCC (Registre des codes-créanciers), RCC (Registro dei codici creditori)</t>
+  </si>
+  <si>
+    <t>The [ZSR/RCC](http://fhir.ch/ig/ch-term/NamingSystem/zsr) number is issued to self-employed, natural or legal persons (organisations) who can and want to work at the expense of health insurance.</t>
+  </si>
+  <si>
+    <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="urn:oid:2.16.756.5.30.1.123.100.2.1.1"/&gt;
+&lt;/valueIdentifier&gt;</t>
+  </si>
+  <si>
+    <t>Practitioner.active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>Whether this practitioner's record is in active use</t>
+  </si>
+  <si>
+    <t>Whether this practitioner's record is in active use.</t>
+  </si>
+  <si>
+    <t>If the practitioner is not in use by one organization, then it should mark the period on the PractitonerRole with an end date (even if they are active) as they may be active in another role.</t>
+  </si>
+  <si>
+    <t>Need to be able to mark a practitioner record as not to be used because it was created in error.</t>
+  </si>
+  <si>
+    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
+  </si>
+  <si>
+    <t>./statusCode</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Practitioner.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HumanName {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-humanname}
+</t>
+  </si>
+  <si>
+    <t>Name of a human - parts and usage</t>
+  </si>
+  <si>
+    <t>A human's name with the ability to identify parts and usage.</t>
+  </si>
+  <si>
+    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
+  </si>
+  <si>
+    <t>The name(s) that a Practitioner is known by. Where there are multiple, the name that the practitioner is usually known as should be used in the display.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ch-core-hm-1:if officalName with eCH-011 Extension is specified, it can only be put on a name where use attribute is official {family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name' and value='officialName').empty() or (family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name' and value='officialName').exists() and use='official')}ch-core-hm-2:if orginalName with eCH-011 Extension is specified, it can only be put on a name where use attribute is maiden {family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name' and value='originalName').empty() or ((family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name' and value='originalName').exists() and use='maiden'))}ch-core-hm-3:ch-ext-ech-11-name can only be put on a family name {descendants().extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name').count()=family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name').count()}ch-core-hm-4:ch-ext-ech-11-firstname can only be put on a given name {descendants().extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-firstname').count()=given.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-firstname').count()}</t>
+  </si>
+  <si>
+    <t>eCH-0011: nameData</t>
+  </si>
+  <si>
+    <t>XPN</t>
+  </si>
+  <si>
+    <t>EN (actually, PN)</t>
+  </si>
+  <si>
+    <t>ProviderName</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContactPoint
+</t>
+  </si>
+  <si>
+    <t>A contact detail for the practitioner (that apply to all roles)</t>
+  </si>
+  <si>
+    <t>A contact detail for the practitioner, e.g. a telephone number or an email address.</t>
+  </si>
+  <si>
+    <t>Person may have multiple ways to be contacted with different uses or applicable periods.  May need to have options for contacting the person urgently and to help with identification.  These typically will have home numbers, or mobile numbers that are not role specific.</t>
+  </si>
+  <si>
+    <t>Need to know how to reach a practitioner independent to any roles the practitioner may have.</t>
+  </si>
+  <si>
     <t xml:space="preserve">value:system}
 </t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>PRD-7 (or XCN.1)</t>
-  </si>
-  <si>
-    <t>./id</t>
-  </si>
-  <si>
-    <t>./Identifiers</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier:GLN</t>
-  </si>
-  <si>
-    <t>GLN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-gln-identifier}
-</t>
-  </si>
-  <si>
-    <t>GLN (Global Location Number)</t>
-  </si>
-  <si>
-    <t>See [GLN](http://fhir.ch/ig/ch-core/NamingSystem/gln)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
-  </si>
-  <si>
-    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
-  </si>
-  <si>
-    <t>Identifier</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier:ZSR</t>
-  </si>
-  <si>
-    <t>ZSR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-zsr-identifier}
-</t>
-  </si>
-  <si>
-    <t>ZSR (Zahlstellenregister), RCC (Registre des codes-créanciers), RCC (Registro dei codici creditori)</t>
-  </si>
-  <si>
-    <t>The [ZSR/RCC](http://fhir.ch/ig/ch-core/NamingSystem/zsr) number is issued to self-employed, natural or legal persons (organisations) who can and want to work at the expense of health insurance.</t>
-  </si>
-  <si>
-    <t>Practitioner.active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>Whether this practitioner's record is in active use</t>
-  </si>
-  <si>
-    <t>Whether this practitioner's record is in active use.</t>
-  </si>
-  <si>
-    <t>If the practitioner is not in use by one organization, then it should mark the period on the PractitonerRole with an end date (even if they are active) as they may be active in another role.</t>
-  </si>
-  <si>
-    <t>Need to be able to mark a practitioner record as not to be used because it was created in error.</t>
-  </si>
-  <si>
-    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
-  </si>
-  <si>
-    <t>./statusCode</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Practitioner.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HumanName {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-humanname}
-</t>
-  </si>
-  <si>
-    <t>Name of a human - parts and usage</t>
-  </si>
-  <si>
-    <t>A human's name with the ability to identify parts and usage.</t>
-  </si>
-  <si>
-    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
-  </si>
-  <si>
-    <t>The name(s) that a Practitioner is known by. Where there are multiple, the name that the practitioner is usually known as should be used in the display.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ch-core-hm-1:if officalName with eCH-011 Extension is specified, it can only be put on a name where use attribute is official {family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name' and value='officialName').empty() or (family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name' and value='officialName').exists() and use='official')}ch-core-hm-2:if orginalName with eCH-011 Extension is specified, it can only be put on a name where use attribute is maiden {family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name' and value='originalName').empty() or ((family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name' and value='originalName').exists() and use='maiden'))}ch-core-hm-3:ch-ext-ech-11-name can only be put on a family name {descendants().extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name').count()=family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name').count()}ch-core-hm-4:ch-ext-ech-11-firstname can only be put on a given name {descendants().extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-firstname').count()=given.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-firstname').count()}</t>
-  </si>
-  <si>
-    <t>XPN</t>
-  </si>
-  <si>
-    <t>EN (actually, PN)</t>
-  </si>
-  <si>
-    <t>ProviderName</t>
-  </si>
-  <si>
-    <t>eCH-0011: nameData</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ContactPoint
-</t>
-  </si>
-  <si>
-    <t>A contact detail for the practitioner (that apply to all roles)</t>
-  </si>
-  <si>
-    <t>A contact detail for the practitioner, e.g. a telephone number or an email address.</t>
-  </si>
-  <si>
-    <t>Person may have multiple ways to be contacted with different uses or applicable periods.  May need to have options for contacting the person urgently and to help with identification.  These typically will have home numbers, or mobile numbers that are not role specific.</t>
-  </si>
-  <si>
-    <t>Need to know how to reach a practitioner independent to any roles the practitioner may have.</t>
+    <t>eCH-0046: Contact</t>
   </si>
   <si>
     <t>PRT-15, STF-10, ROL-12</t>
@@ -637,9 +660,6 @@
   </si>
   <si>
     <t>./ContactPoints</t>
-  </si>
-  <si>
-    <t>eCH-0046: Contact</t>
   </si>
   <si>
     <t>Practitioner.telecom.id</t>
@@ -832,6 +852,9 @@
 ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
   <si>
+    <t>eCH-0046: email</t>
+  </si>
+  <si>
     <t>XTN</t>
   </si>
   <si>
@@ -839,9 +862,6 @@
   </si>
   <si>
     <t>ContactPoint</t>
-  </si>
-  <si>
-    <t>eCH-0046: email</t>
   </si>
   <si>
     <t>Practitioner.telecom:phone</t>
@@ -902,6 +922,9 @@
              (state.empty() or state.memberOf('http://fhir.ch/ig/ch-core/ValueSet/ech-7-cantonabbreviation')))}</t>
   </si>
   <si>
+    <t>eCH-0010: addressInformation</t>
+  </si>
+  <si>
     <t>XAD</t>
   </si>
   <si>
@@ -911,9 +934,6 @@
     <t>Address</t>
   </si>
   <si>
-    <t>eCH-0010: addressInformation</t>
-  </si>
-  <si>
     <t>Practitioner.gender</t>
   </si>
   <si>
@@ -932,6 +952,9 @@
     <t>http://hl7.org/fhir/ValueSet/administrative-gender|4.0.1</t>
   </si>
   <si>
+    <t>eCH-0011: sex. sexType, BFS-33, see ConceptMap http://fhir.ch/ig/ch-core/ConceptMap/sex-ech11-to-fhir</t>
+  </si>
+  <si>
     <t>STF-5</t>
   </si>
   <si>
@@ -939,9 +962,6 @@
   </si>
   <si>
     <t>./GenderCode</t>
-  </si>
-  <si>
-    <t>eCH-0011: sex. sexType, BFS-33, see ConceptMap http://fhir.ch/ig/ch-core/ConceptMap/sex-ech11-to-fhir</t>
   </si>
   <si>
     <t>Practitioner.birthDate</t>
@@ -960,6 +980,9 @@
     <t>Needed for identification.</t>
   </si>
   <si>
+    <t>eCH-0011: birthData, BFS-31</t>
+  </si>
+  <si>
     <t>STF-6</t>
   </si>
   <si>
@@ -967,9 +990,6 @@
   </si>
   <si>
     <t>(not represented in ServD)</t>
-  </si>
-  <si>
-    <t>eCH-0011: birthData, BFS-31</t>
   </si>
   <si>
     <t>Practitioner.photo</t>
@@ -1128,6 +1148,9 @@
     <t>Knowing which language a practitioner speaks can help in facilitating communication with patients.</t>
   </si>
   <si>
+    <t>eCH-0011: languageOfCorrespondance: de, fr, it, rm = Rhaeto-Romance, en, other languages ISO 639-1</t>
+  </si>
+  <si>
     <t>PID-15, NK1-20, LAN-2</t>
   </si>
   <si>
@@ -1135,9 +1158,6 @@
   </si>
   <si>
     <t>./Languages.LanguageSpokenCode</t>
-  </si>
-  <si>
-    <t>eCH-0011: languageOfCorrespondance: de, fr, it, rm = Rhaeto-Romance, en, other languages ISO 639-1</t>
   </si>
 </sst>
 </file>
@@ -1364,87 +1384,87 @@
         <v>17</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1463,17 +1483,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.57421875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.57421875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.70703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.70703125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="90.17578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="89.51953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1482,4612 +1502,4612 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="55.9453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="52.46484375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="58.06640625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.921875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="60.68359375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="139.15234375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="49.75" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="99.16015625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="97.55859375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="62.87890625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="143.74609375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="50.953125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>9</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>132</v>
+        <v>81</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>132</v>
+        <v>81</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>132</v>
+        <v>81</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P11" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>79</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P12" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P13" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>79</v>
+        <v>174</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="N14" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="P14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q14" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="R14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="O14" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="P14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q14" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="R14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>171</v>
-      </c>
       <c r="AG14" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>178</v>
+        <v>81</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>179</v>
+        <v>81</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>79</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="P15" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>190</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AC16" s="2"/>
       <c r="AD16" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>200</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>206</v>
+        <v>81</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AG18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AN18" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>220</v>
+        <v>81</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="P20" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>229</v>
+        <v>81</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>79</v>
+        <v>236</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="P21" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>240</v>
+        <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>79</v>
+        <v>247</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>206</v>
+        <v>81</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>132</v>
+        <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>254</v>
+        <v>134</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>79</v>
+        <v>260</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>79</v>
+        <v>270</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>265</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>79</v>
+        <v>270</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>270</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="P26" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>79</v>
+        <v>270</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>275</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="P27" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>79</v>
+        <v>291</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>286</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="P28" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Z28" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AA28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>287</v>
-      </c>
       <c r="AG28" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>79</v>
+        <v>301</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>296</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="P29" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>79</v>
+        <v>310</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>305</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="P30" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>311</v>
+        <v>81</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>79</v>
+        <v>317</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>317</v>
+        <v>81</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>79</v>
+        <v>324</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>206</v>
+        <v>81</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AG33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AN33" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P34" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>132</v>
+        <v>81</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="P35" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>331</v>
+        <v>81</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>79</v>
+        <v>336</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="Y36" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF36" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="Z36" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>332</v>
-      </c>
       <c r="AG36" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>318</v>
+        <v>81</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>79</v>
+        <v>344</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="P37" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>344</v>
+        <v>81</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>79</v>
+        <v>350</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>350</v>
+        <v>81</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>79</v>
+        <v>355</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="P39" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>79</v>
+        <v>364</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>359</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-core/StructureDefinition-ch-core-practitioner.xlsx
+++ b/ig/ch-core/StructureDefinition-ch-core-practitioner.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T16:13:45+00:00</t>
+    <t>2024-12-17T19:57:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(WORK))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -490,7 +490,7 @@
     <t>Often, specific identities are assigned for the agent.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:$this}
+    <t xml:space="preserve">value:$this}
 </t>
   </si>
   <si>
@@ -909,7 +909,7 @@
     <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats).  This data type may be used to convey addresses for use in delivering mail as well as for visiting locations which might not be valid for mail delivery.  There are a variety of postal address formats defined around the world.</t>
   </si>
   <si>
-    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).</t>
+    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
   </si>
   <si>
     <t>The home/mailing address of the practitioner is often required for employee administration purposes, and also for some rostering services where the start point (practitioners home) can be used in calculations.</t>

--- a/ig/ch-core/StructureDefinition-ch-core-practitioner.xlsx
+++ b/ig/ch-core/StructureDefinition-ch-core-practitioner.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3145" uniqueCount="448">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>6.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T19:57:45+00:00</t>
+    <t>2025-05-22T06:00:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -530,19 +530,6 @@
 &lt;/valueIdentifier&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
-  </si>
-  <si>
-    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
-  </si>
-  <si>
-    <t>Identifier</t>
-  </si>
-  <si>
     <t>Practitioner.identifier:ZSR</t>
   </si>
   <si>
@@ -599,32 +586,36 @@
 </t>
   </si>
   <si>
-    <t>Name of a human - parts and usage</t>
-  </si>
-  <si>
-    <t>A human's name with the ability to identify parts and usage.</t>
-  </si>
-  <si>
-    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
+    <t>The name(s) associated with the practitioner</t>
+  </si>
+  <si>
+    <t>The name(s) associated with the practitioner.</t>
+  </si>
+  <si>
+    <t>The selection of the use property should ensure that there is a single usual name specified, and others use the nickname (alias), old, or other values as appropriate.  ++In general, select the value to be used in the ResourceReference.display based on this:++1. There is more than 1 name+2. Use = usual+3. Period is current to the date of the usage+4. Use = official+5. Other order as decided by internal business rules.</t>
   </si>
   <si>
     <t>The name(s) that a Practitioner is known by. Where there are multiple, the name that the practitioner is usually known as should be used in the display.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ch-core-hm-1:if officalName with eCH-011 Extension is specified, it can only be put on a name where use attribute is official {family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name' and value='officialName').empty() or (family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name' and value='officialName').exists() and use='official')}ch-core-hm-2:if orginalName with eCH-011 Extension is specified, it can only be put on a name where use attribute is maiden {family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name' and value='originalName').empty() or ((family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name' and value='originalName').exists() and use='maiden'))}ch-core-hm-3:ch-ext-ech-11-name can only be put on a family name {descendants().extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name').count()=family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name').count()}ch-core-hm-4:ch-ext-ech-11-firstname can only be put on a given name {descendants().extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-firstname').count()=given.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-firstname').count()}</t>
-  </si>
-  <si>
     <t>eCH-0011: nameData</t>
   </si>
   <si>
-    <t>XPN</t>
-  </si>
-  <si>
-    <t>EN (actually, PN)</t>
-  </si>
-  <si>
-    <t>ProviderName</t>
+    <t>XCN Components</t>
+  </si>
+  <si>
+    <t>./name</t>
+  </si>
+  <si>
+    <t>./PreferredName (GivenNames, FamilyName, TitleCode)</t>
   </si>
   <si>
     <t>Practitioner.telecom</t>
@@ -842,26 +833,176 @@
 </t>
   </si>
   <si>
-    <t>CH Core ContactPoint eCH-0046 Email</t>
-  </si>
-  <si>
-    <t>Details for all kinds of technology mediated contact points for a person or organization, including telephone, email, etc.</t>
-  </si>
-  <si>
-    <t>cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}
-ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
-  </si>
-  <si>
     <t>eCH-0046: email</t>
   </si>
   <si>
-    <t>XTN</t>
-  </si>
-  <si>
-    <t>TEL</t>
-  </si>
-  <si>
-    <t>ContactPoint</t>
+    <t>Practitioner.telecom:email.id</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:email.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:email.system</t>
+  </si>
+  <si>
+    <t>eCH-0046: emailType</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:email.value</t>
+  </si>
+  <si>
+    <t>eCH-0046: emailAddress</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:email.use</t>
+  </si>
+  <si>
+    <t>eCH-0046: emailCategory/otherEmailCategory</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:email.use.id</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.use.id</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references)</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:email.use.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.use.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:email.use.extension:emailCategory</t>
+  </si>
+  <si>
+    <t>emailCategory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-46-emailcategory}
+</t>
+  </si>
+  <si>
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
+    <t>Optional Extension Element - found in all resources.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>eCH-0046: emailCategory</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:email.use.value</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.use.value</t>
+  </si>
+  <si>
+    <t>Primitive value for code</t>
+  </si>
+  <si>
+    <t>string.value</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:email.rank</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:email.period</t>
+  </si>
+  <si>
+    <t>eCH-0046: validity</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:email.period.id</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.period.id</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:email.period.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.period.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:email.period.start</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.period.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Starting time with inclusive boundary</t>
+  </si>
+  <si>
+    <t>The start of the period. The boundary is inclusive.</t>
+  </si>
+  <si>
+    <t>If the low element is missing, the meaning is that the low boundary is not known.</t>
+  </si>
+  <si>
+    <t>Period.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">per-1
+</t>
+  </si>
+  <si>
+    <t>eCH-0046: dateFrom</t>
+  </si>
+  <si>
+    <t>DR.1</t>
+  </si>
+  <si>
+    <t>./low</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:email.period.end</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.period.end</t>
+  </si>
+  <si>
+    <t>End time with inclusive boundary, if not ongoing</t>
+  </si>
+  <si>
+    <t>The end of the period. If the end of the period is missing, it means no end was known or planned at the time the instance was created. The start may be in the past, and the end date in the future, which means that period is expected/planned to end at that time.</t>
+  </si>
+  <si>
+    <t>The high value includes any matching date/time. i.e. 2012-02-03T10:00:00 is in a period that has an end value of 2012-02-03.</t>
+  </si>
+  <si>
+    <t>If the end of the period is missing, it means that the period is ongoing</t>
+  </si>
+  <si>
+    <t>Period.end</t>
+  </si>
+  <si>
+    <t>eCH-0046: dateTo</t>
+  </si>
+  <si>
+    <t>DR.2</t>
+  </si>
+  <si>
+    <t>./high</t>
   </si>
   <si>
     <t>Practitioner.telecom:phone</t>
@@ -874,10 +1015,71 @@
 </t>
   </si>
   <si>
-    <t>CH Core ContactPoint eCH-0046 Phone</t>
-  </si>
-  <si>
     <t>eCH-0046: phone</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:phone.id</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:phone.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:phone.system</t>
+  </si>
+  <si>
+    <t>eCH-0046: phoneType</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:phone.value</t>
+  </si>
+  <si>
+    <t>eCH-0046: phoneNumber</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:phone.use</t>
+  </si>
+  <si>
+    <t>eCH-0046: phoneCategory/otherPhoneCategory</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:phone.use.id</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:phone.use.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:phone.use.extension:phoneCategory</t>
+  </si>
+  <si>
+    <t>phoneCategory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-46-phonecategory}
+</t>
+  </si>
+  <si>
+    <t>eCH-0046: phoneNumberCategory</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:phone.use.value</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:phone.rank</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:phone.period</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:phone.period.id</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:phone.period.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:phone.period.start</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:phone.period.end</t>
   </si>
   <si>
     <t>Practitioner.telecom:internet</t>
@@ -890,10 +1092,74 @@
 </t>
   </si>
   <si>
-    <t>CH Core ContactPoint eCH-0046 Internet</t>
-  </si>
-  <si>
     <t>eCH-0046: internet</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:internet.id</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:internet.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:internet.system</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>eCH-0046: internetType</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:internet.value</t>
+  </si>
+  <si>
+    <t>eCH-0046: internetAddress</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:internet.use</t>
+  </si>
+  <si>
+    <t>eCH-0046: internetCategory/otherInternetCategory</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:internet.use.id</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:internet.use.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:internet.use.extension:internetCategory</t>
+  </si>
+  <si>
+    <t>internetCategory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-46-internetcategory}
+</t>
+  </si>
+  <si>
+    <t>eCH-0046: internetCategory</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:internet.use.value</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:internet.rank</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:internet.period</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:internet.period.id</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:internet.period.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:internet.period.start</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom:internet.period.end</t>
   </si>
   <si>
     <t>Practitioner.address</t>
@@ -903,35 +1169,26 @@
 </t>
   </si>
   <si>
-    <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats)</t>
-  </si>
-  <si>
-    <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats).  This data type may be used to convey addresses for use in delivering mail as well as for visiting locations which might not be valid for mail delivery.  There are a variety of postal address formats defined around the world.</t>
-  </si>
-  <si>
-    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+    <t>Address(es) of the practitioner that are not role specific (typically home address)</t>
+  </si>
+  <si>
+    <t>Address(es) of the practitioner that are not role specific (typically home address). +Work addresses are not typically entered in this property as they are usually role dependent.</t>
+  </si>
+  <si>
+    <t>The PractitionerRole does not have an address value on it, as it is expected that the location property be used for this purpose (which has an address).</t>
   </si>
   <si>
     <t>The home/mailing address of the practitioner is often required for employee administration purposes, and also for some rostering services where the start point (practitioners home) can be used in calculations.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ch-addr-2:For a Swiss address, a canton abbreviation from the value set 'eCH-0007 Canton Abbreviation' must be used. {country.extension.where(url = 'http://hl7.org/fhir/StructureDefinition/iso21090-SC-coding').empty() or 
-            (country.extension.where(url = 'http://hl7.org/fhir/StructureDefinition/iso21090-SC-coding').value.code.startsWith('CH') = false) or 
-            (country.extension.where(url = 'http://hl7.org/fhir/StructureDefinition/iso21090-SC-coding').value.code.startsWith('CH').exists() and 
-             (state.empty() or state.memberOf('http://fhir.ch/ig/ch-core/ValueSet/ech-7-cantonabbreviation')))}</t>
-  </si>
-  <si>
-    <t>eCH-0010: addressInformation</t>
-  </si>
-  <si>
-    <t>XAD</t>
-  </si>
-  <si>
-    <t>AD</t>
-  </si>
-  <si>
-    <t>Address</t>
+    <t>ORC-24, STF-11, ROL-11, PRT-14</t>
+  </si>
+  <si>
+    <t>./addr</t>
+  </si>
+  <si>
+    <t>./Addresses</t>
   </si>
   <si>
     <t>Practitioner.gender</t>
@@ -1474,7 +1731,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO39"/>
+  <dimension ref="A1:AO84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1483,17 +1740,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.70703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.70703125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.03125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="34.8984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.31640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="89.51953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="76.74609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1502,27 +1759,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.06640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.921875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="49.78125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="44.51171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="97.55859375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="62.87890625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="143.74609375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="50.953125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="83.63671875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="28.47265625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="47.515625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="44.90625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2843,7 +3100,7 @@
         <v>81</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>161</v>
@@ -2914,7 +3171,7 @@
         <v>83</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>103</v>
@@ -2923,27 +3180,27 @@
         <v>81</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>81</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>148</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>81</v>
@@ -2962,16 +3219,16 @@
         <v>81</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2985,7 +3242,7 @@
         <v>81</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="T13" t="s" s="2">
         <v>81</v>
@@ -3033,7 +3290,7 @@
         <v>83</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>103</v>
@@ -3042,24 +3299,24 @@
         <v>81</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>81</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3082,26 +3339,26 @@
         <v>92</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="O14" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="P14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q14" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="M14" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="P14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q14" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="R14" t="s" s="2">
         <v>81</v>
       </c>
@@ -3145,7 +3402,7 @@
         <v>81</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>82</v>
@@ -3166,21 +3423,21 @@
         <v>81</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3200,22 +3457,22 @@
         <v>81</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="O15" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>81</v>
@@ -3264,7 +3521,7 @@
         <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>82</v>
@@ -3273,22 +3530,22 @@
         <v>83</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>81</v>
@@ -3296,10 +3553,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3322,19 +3579,19 @@
         <v>92</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>81</v>
@@ -3371,7 +3628,7 @@
         <v>81</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AC16" s="2"/>
       <c r="AD16" t="s" s="2">
@@ -3381,7 +3638,7 @@
         <v>154</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>82</v>
@@ -3396,16 +3653,16 @@
         <v>103</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>81</v>
@@ -3413,10 +3670,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3439,13 +3696,13 @@
         <v>81</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3496,7 +3753,7 @@
         <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>82</v>
@@ -3517,7 +3774,7 @@
         <v>81</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>81</v>
@@ -3528,10 +3785,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3560,7 +3817,7 @@
         <v>138</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>140</v>
@@ -3601,10 +3858,10 @@
         <v>81</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>81</v>
@@ -3613,7 +3870,7 @@
         <v>154</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>82</v>
@@ -3634,7 +3891,7 @@
         <v>81</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>81</v>
@@ -3645,10 +3902,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3674,10 +3931,10 @@
         <v>111</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3704,13 +3961,13 @@
         <v>81</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>81</v>
@@ -3728,7 +3985,7 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>82</v>
@@ -3737,7 +3994,7 @@
         <v>91</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>103</v>
@@ -3746,13 +4003,13 @@
         <v>81</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>81</v>
@@ -3760,10 +4017,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3786,19 +4043,19 @@
         <v>92</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>81</v>
@@ -3847,7 +4104,7 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>82</v>
@@ -3865,13 +4122,13 @@
         <v>81</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>81</v>
@@ -3879,10 +4136,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3908,16 +4165,16 @@
         <v>111</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>81</v>
@@ -3942,13 +4199,13 @@
         <v>81</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>81</v>
@@ -3966,7 +4223,7 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>82</v>
@@ -3984,13 +4241,13 @@
         <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>81</v>
@@ -3998,10 +4255,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4024,16 +4281,16 @@
         <v>92</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4083,7 +4340,7 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>82</v>
@@ -4101,10 +4358,10 @@
         <v>81</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>81</v>
@@ -4115,10 +4372,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4141,13 +4398,13 @@
         <v>92</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4198,7 +4455,7 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>82</v>
@@ -4219,10 +4476,10 @@
         <v>134</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>81</v>
@@ -4230,13 +4487,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>81</v>
@@ -4255,22 +4512,22 @@
         <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>264</v>
+        <v>192</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>265</v>
+        <v>193</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>81</v>
@@ -4319,7 +4576,7 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>82</v>
@@ -4328,22 +4585,22 @@
         <v>83</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>266</v>
+        <v>103</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>268</v>
+        <v>198</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>269</v>
+        <v>199</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>81</v>
@@ -4351,14 +4608,12 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
         <v>81</v>
       </c>
@@ -4367,7 +4622,7 @@
         <v>82</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>81</v>
@@ -4379,20 +4634,16 @@
         <v>81</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>273</v>
+        <v>202</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>274</v>
+        <v>203</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>81</v>
       </c>
@@ -4440,31 +4691,31 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>266</v>
+        <v>81</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>275</v>
+        <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>268</v>
+        <v>81</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>269</v>
+        <v>206</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>270</v>
+        <v>81</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>81</v>
@@ -4472,16 +4723,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4500,20 +4749,18 @@
         <v>81</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>278</v>
+        <v>137</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>279</v>
+        <v>138</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>265</v>
+        <v>208</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>81</v>
       </c>
@@ -4549,19 +4796,19 @@
         <v>81</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>81</v>
+        <v>209</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>81</v>
+        <v>210</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>82</v>
@@ -4570,22 +4817,22 @@
         <v>83</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>266</v>
+        <v>142</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>280</v>
+        <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>268</v>
+        <v>81</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>269</v>
+        <v>206</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>270</v>
+        <v>81</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>81</v>
@@ -4593,10 +4840,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>281</v>
+        <v>212</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4604,10 +4851,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>81</v>
@@ -4616,29 +4863,25 @@
         <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>282</v>
+        <v>111</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>283</v>
+        <v>213</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>81</v>
+        <v>257</v>
       </c>
       <c r="S27" t="s" s="2">
         <v>81</v>
@@ -4656,13 +4899,13 @@
         <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>81</v>
+        <v>215</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>81</v>
+        <v>216</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>81</v>
+        <v>217</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>81</v>
@@ -4680,31 +4923,31 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>281</v>
+        <v>218</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>165</v>
+        <v>219</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>287</v>
+        <v>103</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>289</v>
+        <v>220</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>290</v>
+        <v>221</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>291</v>
+        <v>222</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>81</v>
@@ -4712,10 +4955,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>292</v>
+        <v>223</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4723,7 +4966,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>91</v>
@@ -4738,17 +4981,19 @@
         <v>92</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>111</v>
+        <v>202</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>293</v>
+        <v>224</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="O28" t="s" s="2">
-        <v>295</v>
+        <v>227</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>81</v>
@@ -4773,13 +5018,13 @@
         <v>81</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>220</v>
+        <v>81</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>296</v>
+        <v>81</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>297</v>
+        <v>81</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>81</v>
@@ -4797,7 +5042,7 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>292</v>
+        <v>228</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>82</v>
@@ -4812,16 +5057,16 @@
         <v>103</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>299</v>
+        <v>229</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>301</v>
+        <v>231</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>81</v>
@@ -4829,10 +5074,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>302</v>
+        <v>266</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>302</v>
+        <v>232</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4849,23 +5094,25 @@
         <v>81</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>303</v>
+        <v>111</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>304</v>
+        <v>233</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="O29" t="s" s="2">
-        <v>306</v>
+        <v>236</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>81</v>
@@ -4890,13 +5137,13 @@
         <v>81</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>81</v>
+        <v>215</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>81</v>
+        <v>237</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>81</v>
+        <v>238</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>81</v>
@@ -4914,7 +5161,7 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>302</v>
+        <v>239</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>82</v>
@@ -4929,16 +5176,16 @@
         <v>103</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>307</v>
+        <v>267</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>309</v>
+        <v>241</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>310</v>
+        <v>242</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>81</v>
@@ -4946,10 +5193,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>311</v>
+        <v>268</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>311</v>
+        <v>269</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4960,7 +5207,7 @@
         <v>82</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>81</v>
@@ -4972,18 +5219,16 @@
         <v>81</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>312</v>
+        <v>202</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>313</v>
+        <v>270</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>314</v>
+        <v>271</v>
       </c>
       <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>315</v>
-      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>81</v>
       </c>
@@ -5031,19 +5276,19 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>311</v>
+        <v>205</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>81</v>
@@ -5052,10 +5297,10 @@
         <v>81</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>316</v>
+        <v>81</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>317</v>
+        <v>81</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>81</v>
@@ -5063,10 +5308,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>318</v>
+        <v>272</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>318</v>
+        <v>273</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5089,13 +5334,13 @@
         <v>81</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>319</v>
+        <v>137</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>320</v>
+        <v>274</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>321</v>
+        <v>275</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5134,19 +5379,17 @@
         <v>81</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="AC31" s="2"/>
       <c r="AD31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>318</v>
+        <v>211</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>82</v>
@@ -5158,19 +5401,19 @@
         <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>322</v>
+        <v>81</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>323</v>
+        <v>81</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>324</v>
+        <v>81</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>81</v>
@@ -5178,12 +5421,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>325</v>
+        <v>276</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="D32" t="s" s="2">
         <v>81</v>
       </c>
@@ -5204,13 +5449,13 @@
         <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>207</v>
+        <v>278</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>208</v>
+        <v>279</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>209</v>
+        <v>280</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5261,28 +5506,28 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>81</v>
+        <v>281</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>81</v>
+        <v>282</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>211</v>
+        <v>134</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
@@ -5293,21 +5538,21 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>326</v>
+        <v>283</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>326</v>
+        <v>284</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>81</v>
@@ -5319,17 +5564,15 @@
         <v>81</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>137</v>
+        <v>202</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>138</v>
+        <v>285</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>81</v>
@@ -5378,19 +5621,19 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>216</v>
+        <v>286</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>81</v>
@@ -5399,7 +5642,7 @@
         <v>81</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>211</v>
+        <v>81</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
@@ -5410,46 +5653,44 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>327</v>
+        <v>287</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>327</v>
+        <v>243</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>328</v>
+        <v>81</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>137</v>
+        <v>244</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>329</v>
+        <v>245</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>330</v>
+        <v>246</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>81</v>
       </c>
@@ -5497,28 +5738,28 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>331</v>
+        <v>248</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>81</v>
+        <v>206</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>134</v>
+        <v>206</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
@@ -5529,10 +5770,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>332</v>
+        <v>249</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5543,7 +5784,7 @@
         <v>82</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>81</v>
@@ -5552,21 +5793,19 @@
         <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>149</v>
+        <v>250</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>333</v>
+        <v>251</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>334</v>
+        <v>252</v>
       </c>
       <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>335</v>
-      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>81</v>
       </c>
@@ -5614,13 +5853,13 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>332</v>
+        <v>253</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>81</v>
@@ -5629,16 +5868,16 @@
         <v>103</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>81</v>
+        <v>289</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>336</v>
+        <v>254</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>81</v>
+        <v>255</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>81</v>
@@ -5646,10 +5885,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>337</v>
+        <v>290</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>337</v>
+        <v>291</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5657,7 +5896,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>91</v>
@@ -5672,13 +5911,13 @@
         <v>81</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>338</v>
+        <v>202</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>339</v>
+        <v>203</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>340</v>
+        <v>204</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5705,13 +5944,13 @@
         <v>81</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>341</v>
+        <v>81</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>342</v>
+        <v>81</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>343</v>
+        <v>81</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>81</v>
@@ -5729,10 +5968,10 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>337</v>
+        <v>205</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>91</v>
@@ -5741,7 +5980,7 @@
         <v>81</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>81</v>
@@ -5750,10 +5989,10 @@
         <v>81</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>323</v>
+        <v>206</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>344</v>
+        <v>81</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>81</v>
@@ -5761,21 +6000,21 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>345</v>
+        <v>292</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>345</v>
+        <v>293</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>81</v>
@@ -5787,18 +6026,18 @@
         <v>81</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>255</v>
+        <v>137</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>346</v>
+        <v>138</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>81</v>
       </c>
@@ -5834,31 +6073,31 @@
         <v>81</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>81</v>
+        <v>209</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>81</v>
+        <v>210</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>345</v>
+        <v>211</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>81</v>
@@ -5867,10 +6106,10 @@
         <v>81</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>349</v>
+        <v>206</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>350</v>
+        <v>81</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>81</v>
@@ -5878,10 +6117,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>351</v>
+        <v>294</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>351</v>
+        <v>295</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5901,18 +6140,20 @@
         <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>352</v>
+        <v>296</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>353</v>
+        <v>297</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>81</v>
@@ -5961,7 +6202,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>351</v>
+        <v>300</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>82</v>
@@ -5970,19 +6211,19 @@
         <v>91</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>81</v>
+        <v>301</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>81</v>
+        <v>302</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>81</v>
+        <v>303</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>355</v>
+        <v>304</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>81</v>
@@ -5993,10 +6234,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>356</v>
+        <v>305</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>356</v>
+        <v>306</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6007,7 +6248,7 @@
         <v>82</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>81</v>
@@ -6016,27 +6257,27 @@
         <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>338</v>
+        <v>296</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>357</v>
+        <v>307</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>358</v>
+        <v>308</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="R39" t="s" s="2">
         <v>81</v>
       </c>
@@ -6056,13 +6297,13 @@
         <v>81</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>81</v>
@@ -6080,33 +6321,5284 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>356</v>
+        <v>311</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>81</v>
+        <v>301</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO39" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="D40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="P40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AO40" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q41" s="2"/>
+      <c r="R41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO41" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="O42" s="2"/>
+      <c r="P42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO42" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AO43" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="P44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="R44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AO44" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="P45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AO45" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO46" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AC47" s="2"/>
+      <c r="AD47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO47" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="D48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO48" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO49" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="O50" s="2"/>
+      <c r="P50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO50" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AO51" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="O53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="O54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="O55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q55" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="D56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="P56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="O58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="P60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="P61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AO61" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO62" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AC63" s="2"/>
+      <c r="AD63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="D64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="O66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="B67" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="B68" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="AN39" t="s" s="2">
+      <c r="B69" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="O69" s="2"/>
+      <c r="P69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="AO39" t="s" s="2">
+      <c r="B70" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="O70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="O71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q71" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="P72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AO72" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="P73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="P74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="P75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="O78" s="2"/>
+      <c r="P78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO78" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="P79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO79" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="P80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO80" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AO81" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="P82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AO82" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO83" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="P84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AO84" t="s" s="2">
         <v>81</v>
       </c>
     </row>

--- a/ig/ch-core/StructureDefinition-ch-core-practitioner.xlsx
+++ b/ig/ch-core/StructureDefinition-ch-core-practitioner.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0-ballot</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T06:00:59+00:00</t>
+    <t>2025-12-16T08:02:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -275,7 +275,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-pract-1:If a HumanName is provided, at least one HumanName must have a given and family name. {name.where(family.exists() and given.exists()).count()&gt;0 or name.empty()}ch-pract-2:gender unknown is currently not used in Switzerland in eCH and the EPR {gender.empty() or gender!='unknown'}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-pract-1:If a HumanName is provided, at least one HumanName must have a family name. {name.where(family.exists()).count()&gt;0 or name.empty()}ch-pract-2:gender unknown is currently not used in Switzerland in eCH and the EPR {gender.empty() or gender!='unknown'}</t>
   </si>
   <si>
     <t>PRD (as one example)</t>
@@ -373,7 +373,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -1377,7 +1377,7 @@
     <t>Practitioner.qualification.issuer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
